--- a/data extraction /lit search metadata /pulsepress/pulse_pressjan29.xlsx
+++ b/data extraction /lit search metadata /pulsepress/pulse_pressjan29.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /pulsepress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F56552-8096-9449-978C-6454964ADDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAD4142-CEBC-554D-891E-8EEE86300E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="-21960" windowWidth="23480" windowHeight="14400" xr2:uid="{2F64D7F4-80DD-A349-895A-5329DF1C15C9}"/>
+    <workbookView xWindow="2100" yWindow="2220" windowWidth="25060" windowHeight="14400" xr2:uid="{2F64D7F4-80DD-A349-895A-5329DF1C15C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="192">
   <si>
     <t>label</t>
   </si>
@@ -147,9 +147,6 @@
     <t>figure 1, 2</t>
   </si>
   <si>
-    <t xml:space="preserve">pulse/press experiment, can't seem to find sample size but there are error bars indicated standard deviation </t>
-  </si>
-  <si>
     <t>Javal_2016_ANIMBIOL</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>figure 1,2,3</t>
   </si>
   <si>
-    <t>pulse press, acclimation experiment</t>
-  </si>
-  <si>
     <t>Hallsson_2012_JOOFEVBI</t>
   </si>
   <si>
@@ -480,9 +474,6 @@
     <t>Response of Rhizopus Oligosporus to Temporal Temperature Profiles in a Model Solid-State Fermentation System.</t>
   </si>
   <si>
-    <t xml:space="preserve">hot exposure, not flux pattern </t>
-  </si>
-  <si>
     <t>Marshall_2010_PROFTHROSOB.SC</t>
   </si>
   <si>
@@ -532,13 +523,91 @@
   </si>
   <si>
     <t xml:space="preserve">pulse press, heat shock protein </t>
+  </si>
+  <si>
+    <t>Picciau_2017_BOTA</t>
+  </si>
+  <si>
+    <t>Picciau, Rosangela and Porceddu, Marco and Bacchetta, Gianluigi</t>
+  </si>
+  <si>
+    <t>Can alternating temperature, moist chilling, and gibberellin interchangeably promote the completion of germination in Clematis vitalba seeds?</t>
+  </si>
+  <si>
+    <t>BOTANY</t>
+  </si>
+  <si>
+    <t>10.1139/cjb-2017-0039</t>
+  </si>
+  <si>
+    <t>Each plant species has particular requirements for seed germination, and some of them respond differently to constant or alternating temperature regimes. In this study, the interchangeable effects of different treatments and temperatures on the completion of seed germination of Clematis vitalba L. were investigated. The seeds were tested with a constant (from 5 degrees C to 25 degrees C) or a fluctuating (25/10 degrees C) temperature regime, and the effect of gibberellic acid (GA(3)), incubation at warm (W) or cold (C) temperatures while being imbibed, and drying after ripening (DAR) were evaluated. The final germination percentages and the time in days required to reach 50% of germination (T-50) were calculated. GA(3) and C significantly enhanced completion of seed germination at all of the temperatures tested. A strong positive effect of alternating temperature was observed, which triggered completion of seed germination regardless of treatment. Under the fluctuating temperature, the chilled seeds had the most rapid germination. Low germination rates were observed for both control and DAR treatments. Seeds of C. vitalba display a certain degree of dormancy, which can be broken by moist chilling and GA(3) treatments. Moreover, alternating temperature stimulates the completion of seed germination by satisfying certain physiological requirements for germination under constant temperatures.</t>
+  </si>
+  <si>
+    <t>1916-2790</t>
+  </si>
+  <si>
+    <t>can Alternating Temperature, Moist Chilling, and Gibberellin Interchangeably Promote the Completion of Germination in Clematis Vitalba Seeds?</t>
+  </si>
+  <si>
+    <t>return for cold exposure in figure 2 and figure 1; not sure how usable data for big met analysis is--- doesn't fit the acclimated to flux measured in constant pattern</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>cold exposure first vs hot exposure first vs constant treatments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulse/press experiment, can't seem to find sample size but there are error bars indicated standard deviation--- different pulses of temperature, different recovery times </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulse press, acclimation experiment--exposed to different fluxes and recovery times </t>
+  </si>
+  <si>
+    <t xml:space="preserve">usable </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot exposure, not flux pattern, no errors reported </t>
+  </si>
+  <si>
+    <t>Singh_2020_BRJOOFBI</t>
+  </si>
+  <si>
+    <t>Singh, D. S. and Alkins-Koo, M. and Rostant, L., V and Mohammed, A.</t>
+  </si>
+  <si>
+    <t>Heart rate responses to different temperatures in juvenile Poppiana dentata (Randall, 1840)</t>
+  </si>
+  <si>
+    <t>BRAZILIAN JOURNAL OF BIOLOGY</t>
+  </si>
+  <si>
+    <t>10.1590/1519-6984.188457</t>
+  </si>
+  <si>
+    <t>Temperature is one of the main factors that influences cardiovascular functioning in ectotherms. Hence this study sought to investigate heart rate responses of a freshwater crab species, Poppiana dentata, to different temperature exposures since the species generally reside in habitats of fluctuating physicochemistry. Heart rates were non-invasively determined in juvenile crabs for three temperature regimes, each over an 8-day session; A: temperature exposures of 26 degrees C (2 days) to 30 degrees C (3 days) to 26 degrees C (3 days), B: 26 degrees C (2 days) to 32 degrees C (3 days) to 26 degrees C (3 days) and C: a control at constant 26 degrees C. I kart rate variations were significant among the regimes (P &lt; 0.05), with the median heart rate being highest for regime B (74 beats per minute or bpm) during the temperature insult (32 degrees C), relative to regime A (70 bpm) and the control (64 bpm). Notably, a suppression and inversion of the diurnal cardiac patterns occurred for regimes' A and B crabs respectively, with rates from the highest temperature insult not shifting back to pre-insult levels during recovery (26 degrees C). It is plausible that P. dentata may have compensatory cardiovascular mechanisms that account for these differential heart rate responses, possibly conveying adaptive strategies in its dynamic habitat conditions.</t>
+  </si>
+  <si>
+    <t>1519-6984</t>
+  </si>
+  <si>
+    <t>Heart Rate Responses to Different Temperatures in Juvenile Poppiana Dentata (Randall, 1840)</t>
+  </si>
+  <si>
+    <t>unclear?</t>
+  </si>
+  <si>
+    <t>this does have a constant treatment, but seems like pulse press….?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,13 +615,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -567,9 +649,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,15 +968,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A28D944-C185-E343-8266-9A5EB8B48ABD}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,199 +1031,211 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>2007</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
+      <c r="Q2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>2011</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2016</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="1" t="s">
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F5" s="1">
         <v>2012</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>25</v>
@@ -1151,154 +1247,160 @@
         <v>27</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F6" s="1">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="1" t="s">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F8" s="1">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>25</v>
@@ -1310,39 +1412,42 @@
         <v>27</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="F9" s="1">
         <v>2015</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
@@ -1357,45 +1462,48 @@
         <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F10" s="1">
         <v>2014</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
@@ -1410,45 +1518,45 @@
         <v>26</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F11" s="1">
         <v>2015</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>25</v>
@@ -1463,7 +1571,7 @@
         <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>28</v>
@@ -1472,42 +1580,42 @@
         <v>29</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F12" s="1">
         <v>2004</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>25</v>
@@ -1516,251 +1624,254 @@
         <v>26</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="F13" s="1">
         <v>2017</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="L13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F14" s="1">
         <v>2019</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="L14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="F15" s="1">
         <v>1999</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="J15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="F16" s="1">
         <v>2010</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1">
         <v>2009</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>25</v>
@@ -1772,11 +1883,122 @@
         <v>27</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
         <v>168</v>
       </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18">
+        <v>2017</v>
+      </c>
+      <c r="G18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>174</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data extraction /lit search metadata /pulsepress/pulse_pressjan29.xlsx
+++ b/data extraction /lit search metadata /pulsepress/pulse_pressjan29.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /pulsepress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAD4142-CEBC-554D-891E-8EEE86300E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80764665-9329-8842-AE24-4254759AACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="2220" windowWidth="25060" windowHeight="14400" xr2:uid="{2F64D7F4-80DD-A349-895A-5329DF1C15C9}"/>
   </bookViews>
@@ -327,9 +327,6 @@
     <t>Physiological Responses of Ectotherms to Daily Temperature Variation.</t>
   </si>
   <si>
-    <t>table 1, figure 2, 3, 5</t>
-  </si>
-  <si>
     <t>heatshock, return for pulse press experiments work; missing sample size for current extraction</t>
   </si>
   <si>
@@ -601,6 +598,9 @@
   </si>
   <si>
     <t>this does have a constant treatment, but seems like pulse press….?</t>
+  </si>
+  <si>
+    <t>table 1, figure 3, 5</t>
   </si>
 </sst>
 </file>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A28D944-C185-E343-8266-9A5EB8B48ABD}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>26</v>
@@ -1141,7 +1141,7 @@
         <v>29</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>26</v>
@@ -1197,7 +1197,7 @@
         <v>29</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>26</v>
@@ -1309,7 +1309,7 @@
         <v>71</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1418,7 +1418,7 @@
         <v>91</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1465,45 +1465,45 @@
         <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="1">
         <v>2014</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
@@ -1521,42 +1521,42 @@
         <v>70</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="F11" s="1">
         <v>2015</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>25</v>
@@ -1580,36 +1580,36 @@
         <v>29</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1">
         <v>2004</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>25</v>
@@ -1633,42 +1633,42 @@
         <v>29</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1">
         <v>2017</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>25</v>
@@ -1683,42 +1683,42 @@
         <v>90</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="1">
         <v>2019</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>25</v>
@@ -1738,37 +1738,37 @@
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F15" s="1">
         <v>1999</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="J15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>25</v>
@@ -1783,45 +1783,45 @@
         <v>90</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F16" s="1">
         <v>2010</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="J16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>25</v>
@@ -1836,21 +1836,21 @@
         <v>90</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>89</v>
@@ -1859,19 +1859,19 @@
         <v>2009</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="J17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>25</v>
@@ -1886,36 +1886,36 @@
         <v>90</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
         <v>166</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>167</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>168</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>169</v>
-      </c>
-      <c r="E18" t="s">
-        <v>170</v>
       </c>
       <c r="F18">
         <v>2017</v>
       </c>
       <c r="G18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" t="s">
         <v>171</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>172</v>
-      </c>
-      <c r="I18" t="s">
-        <v>173</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
@@ -1939,48 +1939,48 @@
         <v>29</v>
       </c>
       <c r="Q18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R18" t="s">
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="F19" s="3">
         <v>2020</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>25</v>
@@ -1996,7 +1996,7 @@
         <v>90</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R19" s="3"/>
     </row>
